--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5207,7 +5207,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:21.836615</t>
+    <t>2025-03-05 16:14:59.101827</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5207,13 +5207,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:59.101827</t>
+    <t>2025-03-19 12:18:15.848376</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5207,25 +5207,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-19 12:18:15.848376</t>
+    <t>2025-04-17 10:01:27.374867</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.0</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5207,13 +5207,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:35.160902</t>
+    <t>2025-08-06 15:10:55.667880</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6450" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6522" uniqueCount="1768">
   <si>
     <t>naam</t>
   </si>
@@ -4514,6 +4514,30 @@
     <t>R471811</t>
   </si>
   <si>
+    <t>VESS</t>
+  </si>
+  <si>
+    <t>VeldCap</t>
+  </si>
+  <si>
+    <t>TBV</t>
+  </si>
+  <si>
+    <t>pos_akker</t>
+  </si>
+  <si>
+    <t>pF-curve</t>
+  </si>
+  <si>
+    <t>pF4.25</t>
+  </si>
+  <si>
+    <t>pF</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
     <t>voorbehandeling_observatie_type_bewaring</t>
   </si>
   <si>
@@ -5186,6 +5210,66 @@
     <t>CMA_2_I_A.2 - Electrische geleidbaarheid</t>
   </si>
   <si>
+    <t>zandbakapparaat en drukkamers</t>
+  </si>
+  <si>
+    <t>Double Spade VESS (DSVESS), 7 criteria</t>
+  </si>
+  <si>
+    <t>Double Spade VESS (DSVESS), 3 criteria</t>
+  </si>
+  <si>
+    <t>HYPROP® aangepaste verdampingsmethode (METER Group, Schindler et al., 2010)</t>
+  </si>
+  <si>
+    <t>SST (pF0-2); KST (pF2.3-2.7); PMC (pF3.4 -4.2); PPE (pF3.4 -4.2)</t>
+  </si>
+  <si>
+    <t>Zeefrest 2 mm</t>
+  </si>
+  <si>
+    <t>Laserdiffractometer (Coulter LS2000, ISO 11277)</t>
+  </si>
+  <si>
+    <t>Textuur pipetmethode Robinson-Köhn volgens CMA/2/II/A.6 (toegepast voor alle fracties)</t>
+  </si>
+  <si>
+    <t>Waterretentiecurve - gemeten</t>
+  </si>
+  <si>
+    <t>Parametrische PTF - gemodelleerd</t>
+  </si>
+  <si>
+    <t>Parametrische PTF - gemodelleerd (studie vochtretentiecapaciteit)</t>
+  </si>
+  <si>
+    <t>afgeleid met behulp van de Belgische textuurdriehoek uit fracties zand/leem/klei gemeten met behulp van de pipet/zeefmethode</t>
+  </si>
+  <si>
+    <t>afgeleid met behulp van de Belgische textuurdriehoek uit fracties zand/leem/klei gemeten met behulp van de laserdiffractie</t>
+  </si>
+  <si>
+    <t>pipet/zeefmethode (Gee &amp; Bauder, 1986) (ISO 11277)</t>
+  </si>
+  <si>
+    <t>pH in KCl, 1:5 (V/V) (ISO10390)</t>
+  </si>
+  <si>
+    <t>pH in KCl, 1:2 (V/V) (ISO10390)</t>
+  </si>
+  <si>
+    <t>Visuele beoordeling</t>
+  </si>
+  <si>
+    <t>Proefplan testveld</t>
+  </si>
+  <si>
+    <t>ringmethode (Dirksen, 1999)</t>
+  </si>
+  <si>
+    <t>ringmethode (Grossman &amp; Reinsch, 2002)</t>
+  </si>
+  <si>
     <t>https://data.bodemenondergrond.vlaanderen.be/id/concept/betrouwbaarheid/A</t>
   </si>
   <si>
@@ -5207,13 +5291,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-08-06 15:10:55.667880</t>
+    <t>2025-09-18 15:21:12.189265</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.6</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>xdov-version</t>
@@ -5400,7 +5484,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X995" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X1003" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5460,7 +5544,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="AI3:AJ161" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="AI3:AJ181" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5500,7 +5584,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="AO3:AP995" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="AO3:AP1003" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5884,7 +5968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT995"/>
+  <dimension ref="A1:AT1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5921,7 +6005,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>1727</v>
+        <v>1755</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -6255,13 +6339,13 @@
         <v>88</v>
       </c>
       <c r="Y4" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="Z4" t="s">
         <v>88</v>
       </c>
       <c r="AA4" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="AB4" t="s">
         <v>88</v>
@@ -6273,31 +6357,31 @@
         <v>88</v>
       </c>
       <c r="AE4" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="AF4" t="s">
         <v>88</v>
       </c>
       <c r="AG4" t="s">
-        <v>1566</v>
+        <v>1574</v>
       </c>
       <c r="AH4" t="s">
         <v>88</v>
       </c>
       <c r="AI4" t="s">
-        <v>1568</v>
+        <v>1576</v>
       </c>
       <c r="AJ4" t="s">
         <v>88</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>1722</v>
+        <v>1750</v>
       </c>
       <c r="AL4" t="s">
         <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>1725</v>
+        <v>1753</v>
       </c>
       <c r="AN4" t="s">
         <v>88</v>
@@ -6309,7 +6393,7 @@
         <v>88</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="AR4" t="s">
         <v>88</v>
@@ -6395,13 +6479,13 @@
         <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="Z5" t="s">
         <v>88</v>
       </c>
       <c r="AA5" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="AB5" t="s">
         <v>88</v>
@@ -6413,31 +6497,31 @@
         <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="AF5" t="s">
         <v>88</v>
       </c>
       <c r="AG5" t="s">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="AH5" t="s">
         <v>88</v>
       </c>
       <c r="AI5" t="s">
-        <v>1569</v>
+        <v>1577</v>
       </c>
       <c r="AJ5" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>1723</v>
+        <v>1751</v>
       </c>
       <c r="AL5" t="s">
         <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>1726</v>
+        <v>1754</v>
       </c>
       <c r="AN5" t="s">
         <v>88</v>
@@ -6449,7 +6533,7 @@
         <v>88</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="AR5" t="s">
         <v>88</v>
@@ -6529,13 +6613,13 @@
         <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="Z6" t="s">
         <v>88</v>
       </c>
       <c r="AA6" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="AB6" t="s">
         <v>88</v>
@@ -6547,25 +6631,25 @@
         <v>88</v>
       </c>
       <c r="AE6" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="AF6" t="s">
         <v>88</v>
       </c>
       <c r="AG6" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="AH6" t="s">
         <v>88</v>
       </c>
       <c r="AI6" t="s">
-        <v>1570</v>
+        <v>1578</v>
       </c>
       <c r="AJ6" t="s">
         <v>88</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>1724</v>
+        <v>1752</v>
       </c>
       <c r="AL6" t="s">
         <v>88</v>
@@ -6577,7 +6661,7 @@
         <v>88</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="AR6" t="s">
         <v>88</v>
@@ -6651,25 +6735,25 @@
         <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="Z7" t="s">
         <v>88</v>
       </c>
       <c r="AA7" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="AB7" t="s">
         <v>88</v>
       </c>
       <c r="AE7" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="AF7" t="s">
         <v>88</v>
       </c>
       <c r="AI7" t="s">
-        <v>1571</v>
+        <v>1579</v>
       </c>
       <c r="AJ7" t="s">
         <v>88</v>
@@ -6681,7 +6765,7 @@
         <v>88</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>
@@ -6755,25 +6839,25 @@
         <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="Z8" t="s">
         <v>88</v>
       </c>
       <c r="AA8" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="AB8" t="s">
         <v>88</v>
       </c>
       <c r="AE8" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="AF8" t="s">
         <v>88</v>
       </c>
       <c r="AI8" t="s">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="AJ8" t="s">
         <v>88</v>
@@ -6785,7 +6869,7 @@
         <v>88</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="AR8" t="s">
         <v>88</v>
@@ -6853,25 +6937,25 @@
         <v>88</v>
       </c>
       <c r="Y9" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="Z9" t="s">
         <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="AB9" t="s">
         <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="AF9" t="s">
         <v>88</v>
       </c>
       <c r="AI9" t="s">
-        <v>1573</v>
+        <v>1581</v>
       </c>
       <c r="AJ9" t="s">
         <v>88</v>
@@ -6883,7 +6967,7 @@
         <v>88</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="AR9" t="s">
         <v>88</v>
@@ -6951,25 +7035,25 @@
         <v>88</v>
       </c>
       <c r="Y10" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="Z10" t="s">
         <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="AB10" t="s">
         <v>88</v>
       </c>
       <c r="AE10" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="AF10" t="s">
         <v>88</v>
       </c>
       <c r="AI10" t="s">
-        <v>1574</v>
+        <v>1582</v>
       </c>
       <c r="AJ10" t="s">
         <v>88</v>
@@ -6981,7 +7065,7 @@
         <v>88</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="AR10" t="s">
         <v>88</v>
@@ -7049,25 +7133,25 @@
         <v>88</v>
       </c>
       <c r="Y11" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="Z11" t="s">
         <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="AB11" t="s">
         <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="AF11" t="s">
         <v>88</v>
       </c>
       <c r="AI11" t="s">
-        <v>1575</v>
+        <v>1583</v>
       </c>
       <c r="AJ11" t="s">
         <v>88</v>
@@ -7079,7 +7163,7 @@
         <v>88</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="AR11" t="s">
         <v>88</v>
@@ -7147,25 +7231,25 @@
         <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="Z12" t="s">
         <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="AB12" t="s">
         <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="AF12" t="s">
         <v>88</v>
       </c>
       <c r="AI12" t="s">
-        <v>1576</v>
+        <v>1584</v>
       </c>
       <c r="AJ12" t="s">
         <v>88</v>
@@ -7177,7 +7261,7 @@
         <v>88</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="AR12" t="s">
         <v>88</v>
@@ -7239,25 +7323,25 @@
         <v>88</v>
       </c>
       <c r="Y13" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="Z13" t="s">
         <v>88</v>
       </c>
       <c r="AA13" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="AB13" t="s">
         <v>88</v>
       </c>
       <c r="AE13" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="AF13" t="s">
         <v>88</v>
       </c>
       <c r="AI13" t="s">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="AJ13" t="s">
         <v>88</v>
@@ -7269,7 +7353,7 @@
         <v>88</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="AR13" t="s">
         <v>88</v>
@@ -7331,25 +7415,25 @@
         <v>88</v>
       </c>
       <c r="Y14" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="Z14" t="s">
         <v>88</v>
       </c>
       <c r="AA14" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="AB14" t="s">
         <v>88</v>
       </c>
       <c r="AE14" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="AF14" t="s">
         <v>88</v>
       </c>
       <c r="AI14" t="s">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="AJ14" t="s">
         <v>88</v>
@@ -7361,7 +7445,7 @@
         <v>88</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="AR14" t="s">
         <v>88</v>
@@ -7417,25 +7501,25 @@
         <v>88</v>
       </c>
       <c r="Y15" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="Z15" t="s">
         <v>88</v>
       </c>
       <c r="AA15" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="AB15" t="s">
         <v>88</v>
       </c>
       <c r="AE15" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="AF15" t="s">
         <v>88</v>
       </c>
       <c r="AI15" t="s">
-        <v>1579</v>
+        <v>1587</v>
       </c>
       <c r="AJ15" t="s">
         <v>88</v>
@@ -7447,7 +7531,7 @@
         <v>88</v>
       </c>
       <c r="AQ15" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="AR15" t="s">
         <v>88</v>
@@ -7503,25 +7587,25 @@
         <v>88</v>
       </c>
       <c r="Y16" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="Z16" t="s">
         <v>88</v>
       </c>
       <c r="AA16" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="AB16" t="s">
         <v>88</v>
       </c>
       <c r="AE16" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="AF16" t="s">
         <v>88</v>
       </c>
       <c r="AI16" t="s">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="AJ16" t="s">
         <v>88</v>
@@ -7533,7 +7617,7 @@
         <v>88</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="AR16" t="s">
         <v>88</v>
@@ -7589,25 +7673,25 @@
         <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="Z17" t="s">
         <v>88</v>
       </c>
       <c r="AA17" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="AB17" t="s">
         <v>88</v>
       </c>
       <c r="AE17" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="AF17" t="s">
         <v>88</v>
       </c>
       <c r="AI17" t="s">
-        <v>1581</v>
+        <v>1589</v>
       </c>
       <c r="AJ17" t="s">
         <v>88</v>
@@ -7619,7 +7703,7 @@
         <v>88</v>
       </c>
       <c r="AQ17" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="AR17" t="s">
         <v>88</v>
@@ -7675,25 +7759,25 @@
         <v>88</v>
       </c>
       <c r="Y18" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="Z18" t="s">
         <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="AB18" t="s">
         <v>88</v>
       </c>
       <c r="AE18" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="AF18" t="s">
         <v>88</v>
       </c>
       <c r="AI18" t="s">
-        <v>1582</v>
+        <v>1590</v>
       </c>
       <c r="AJ18" t="s">
         <v>88</v>
@@ -7705,7 +7789,7 @@
         <v>88</v>
       </c>
       <c r="AQ18" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="AR18" t="s">
         <v>88</v>
@@ -7755,19 +7839,19 @@
         <v>88</v>
       </c>
       <c r="Y19" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="Z19" t="s">
         <v>88</v>
       </c>
       <c r="AA19" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="AB19" t="s">
         <v>88</v>
       </c>
       <c r="AE19" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="AF19" t="s">
         <v>88</v>
@@ -7785,7 +7869,7 @@
         <v>88</v>
       </c>
       <c r="AQ19" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="AR19" t="s">
         <v>88</v>
@@ -7835,25 +7919,25 @@
         <v>88</v>
       </c>
       <c r="Y20" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="Z20" t="s">
         <v>88</v>
       </c>
       <c r="AA20" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="AB20" t="s">
         <v>88</v>
       </c>
       <c r="AE20" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="AF20" t="s">
         <v>88</v>
       </c>
       <c r="AI20" t="s">
-        <v>1583</v>
+        <v>1591</v>
       </c>
       <c r="AJ20" t="s">
         <v>88</v>
@@ -7865,7 +7949,7 @@
         <v>88</v>
       </c>
       <c r="AQ20" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="AR20" t="s">
         <v>88</v>
@@ -7915,25 +7999,25 @@
         <v>88</v>
       </c>
       <c r="Y21" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="Z21" t="s">
         <v>88</v>
       </c>
       <c r="AA21" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="AB21" t="s">
         <v>88</v>
       </c>
       <c r="AE21" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="AF21" t="s">
         <v>88</v>
       </c>
       <c r="AI21" t="s">
-        <v>1584</v>
+        <v>1592</v>
       </c>
       <c r="AJ21" t="s">
         <v>88</v>
@@ -7945,7 +8029,7 @@
         <v>88</v>
       </c>
       <c r="AQ21" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="AR21" t="s">
         <v>88</v>
@@ -7995,25 +8079,25 @@
         <v>88</v>
       </c>
       <c r="Y22" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="Z22" t="s">
         <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="AB22" t="s">
         <v>88</v>
       </c>
       <c r="AE22" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="AF22" t="s">
         <v>88</v>
       </c>
       <c r="AI22" t="s">
-        <v>1585</v>
+        <v>1593</v>
       </c>
       <c r="AJ22" t="s">
         <v>88</v>
@@ -8025,7 +8109,7 @@
         <v>88</v>
       </c>
       <c r="AQ22" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="AR22" t="s">
         <v>88</v>
@@ -8075,25 +8159,25 @@
         <v>88</v>
       </c>
       <c r="Y23" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="Z23" t="s">
         <v>88</v>
       </c>
       <c r="AA23" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="AB23" t="s">
         <v>88</v>
       </c>
       <c r="AE23" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="AF23" t="s">
         <v>88</v>
       </c>
       <c r="AI23" t="s">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="AJ23" t="s">
         <v>88</v>
@@ -8105,7 +8189,7 @@
         <v>88</v>
       </c>
       <c r="AQ23" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="AR23" t="s">
         <v>88</v>
@@ -8173,7 +8257,7 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s">
-        <v>1587</v>
+        <v>1595</v>
       </c>
       <c r="AJ24" t="s">
         <v>88</v>
@@ -8235,25 +8319,25 @@
         <v>88</v>
       </c>
       <c r="Y25" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="Z25" t="s">
         <v>88</v>
       </c>
       <c r="AA25" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="AB25" t="s">
         <v>88</v>
       </c>
       <c r="AE25" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="AF25" t="s">
         <v>88</v>
       </c>
       <c r="AI25" t="s">
-        <v>1588</v>
+        <v>1596</v>
       </c>
       <c r="AJ25" t="s">
         <v>88</v>
@@ -8265,7 +8349,7 @@
         <v>88</v>
       </c>
       <c r="AQ25" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="AR25" t="s">
         <v>88</v>
@@ -8315,25 +8399,25 @@
         <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="Z26" t="s">
         <v>88</v>
       </c>
       <c r="AA26" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="AB26" t="s">
         <v>88</v>
       </c>
       <c r="AE26" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="AF26" t="s">
         <v>88</v>
       </c>
       <c r="AI26" t="s">
-        <v>1589</v>
+        <v>1597</v>
       </c>
       <c r="AJ26" t="s">
         <v>88</v>
@@ -8345,7 +8429,7 @@
         <v>88</v>
       </c>
       <c r="AQ26" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="AR26" t="s">
         <v>88</v>
@@ -8395,25 +8479,25 @@
         <v>88</v>
       </c>
       <c r="Y27" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="Z27" t="s">
         <v>88</v>
       </c>
       <c r="AA27" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="AB27" t="s">
         <v>88</v>
       </c>
       <c r="AE27" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="AF27" t="s">
         <v>88</v>
       </c>
       <c r="AI27" t="s">
-        <v>1590</v>
+        <v>1598</v>
       </c>
       <c r="AJ27" t="s">
         <v>88</v>
@@ -8425,7 +8509,7 @@
         <v>88</v>
       </c>
       <c r="AQ27" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="AR27" t="s">
         <v>88</v>
@@ -8475,25 +8559,25 @@
         <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="Z28" t="s">
         <v>88</v>
       </c>
       <c r="AA28" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="AB28" t="s">
         <v>88</v>
       </c>
       <c r="AE28" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="AF28" t="s">
         <v>88</v>
       </c>
       <c r="AI28" t="s">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="AJ28" t="s">
         <v>88</v>
@@ -8505,7 +8589,7 @@
         <v>88</v>
       </c>
       <c r="AQ28" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="AR28" t="s">
         <v>88</v>
@@ -8555,25 +8639,25 @@
         <v>88</v>
       </c>
       <c r="Y29" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="Z29" t="s">
         <v>88</v>
       </c>
       <c r="AA29" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="AB29" t="s">
         <v>88</v>
       </c>
       <c r="AE29" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="AF29" t="s">
         <v>88</v>
       </c>
       <c r="AI29" t="s">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="AJ29" t="s">
         <v>88</v>
@@ -8585,7 +8669,7 @@
         <v>88</v>
       </c>
       <c r="AQ29" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="AR29" t="s">
         <v>88</v>
@@ -8629,25 +8713,25 @@
         <v>88</v>
       </c>
       <c r="Y30" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="Z30" t="s">
         <v>88</v>
       </c>
       <c r="AA30" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="AB30" t="s">
         <v>88</v>
       </c>
       <c r="AE30" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="AF30" t="s">
         <v>88</v>
       </c>
       <c r="AI30" t="s">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="AJ30" t="s">
         <v>88</v>
@@ -8659,7 +8743,7 @@
         <v>88</v>
       </c>
       <c r="AQ30" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="AR30" t="s">
         <v>88</v>
@@ -8703,25 +8787,25 @@
         <v>88</v>
       </c>
       <c r="Y31" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="Z31" t="s">
         <v>88</v>
       </c>
       <c r="AA31" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="AB31" t="s">
         <v>88</v>
       </c>
       <c r="AE31" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="AF31" t="s">
         <v>88</v>
       </c>
       <c r="AI31" t="s">
-        <v>1594</v>
+        <v>1602</v>
       </c>
       <c r="AJ31" t="s">
         <v>88</v>
@@ -8733,7 +8817,7 @@
         <v>88</v>
       </c>
       <c r="AQ31" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="AR31" t="s">
         <v>88</v>
@@ -8777,25 +8861,25 @@
         <v>88</v>
       </c>
       <c r="Y32" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="Z32" t="s">
         <v>88</v>
       </c>
       <c r="AA32" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="AB32" t="s">
         <v>88</v>
       </c>
       <c r="AE32" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="AF32" t="s">
         <v>88</v>
       </c>
       <c r="AI32" t="s">
-        <v>1595</v>
+        <v>1603</v>
       </c>
       <c r="AJ32" t="s">
         <v>88</v>
@@ -8807,7 +8891,7 @@
         <v>88</v>
       </c>
       <c r="AQ32" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="AR32" t="s">
         <v>88</v>
@@ -8851,25 +8935,25 @@
         <v>88</v>
       </c>
       <c r="Y33" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="Z33" t="s">
         <v>88</v>
       </c>
       <c r="AA33" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="AB33" t="s">
         <v>88</v>
       </c>
       <c r="AE33" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="AF33" t="s">
         <v>88</v>
       </c>
       <c r="AI33" t="s">
-        <v>1596</v>
+        <v>1604</v>
       </c>
       <c r="AJ33" t="s">
         <v>88</v>
@@ -8881,7 +8965,7 @@
         <v>88</v>
       </c>
       <c r="AQ33" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="AR33" t="s">
         <v>88</v>
@@ -8925,25 +9009,25 @@
         <v>88</v>
       </c>
       <c r="Y34" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="Z34" t="s">
         <v>88</v>
       </c>
       <c r="AA34" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="AB34" t="s">
         <v>88</v>
       </c>
       <c r="AE34" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="AF34" t="s">
         <v>88</v>
       </c>
       <c r="AI34" t="s">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="AJ34" t="s">
         <v>88</v>
@@ -8955,7 +9039,7 @@
         <v>88</v>
       </c>
       <c r="AQ34" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="AR34" t="s">
         <v>88</v>
@@ -8999,25 +9083,25 @@
         <v>88</v>
       </c>
       <c r="Y35" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="Z35" t="s">
         <v>88</v>
       </c>
       <c r="AA35" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="AB35" t="s">
         <v>88</v>
       </c>
       <c r="AE35" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="AF35" t="s">
         <v>88</v>
       </c>
       <c r="AI35" t="s">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="AJ35" t="s">
         <v>88</v>
@@ -9029,7 +9113,7 @@
         <v>88</v>
       </c>
       <c r="AQ35" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="AR35" t="s">
         <v>88</v>
@@ -9073,25 +9157,25 @@
         <v>88</v>
       </c>
       <c r="Y36" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="Z36" t="s">
         <v>88</v>
       </c>
       <c r="AA36" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="AB36" t="s">
         <v>88</v>
       </c>
       <c r="AE36" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="AF36" t="s">
         <v>88</v>
       </c>
       <c r="AI36" t="s">
-        <v>1599</v>
+        <v>1607</v>
       </c>
       <c r="AJ36" t="s">
         <v>88</v>
@@ -9103,7 +9187,7 @@
         <v>88</v>
       </c>
       <c r="AQ36" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="AR36" t="s">
         <v>88</v>
@@ -9147,25 +9231,25 @@
         <v>88</v>
       </c>
       <c r="Y37" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="Z37" t="s">
         <v>88</v>
       </c>
       <c r="AA37" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="AB37" t="s">
         <v>88</v>
       </c>
       <c r="AE37" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="AF37" t="s">
         <v>88</v>
       </c>
       <c r="AI37" t="s">
-        <v>1600</v>
+        <v>1608</v>
       </c>
       <c r="AJ37" t="s">
         <v>88</v>
@@ -9177,7 +9261,7 @@
         <v>88</v>
       </c>
       <c r="AQ37" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="AR37" t="s">
         <v>88</v>
@@ -9221,25 +9305,25 @@
         <v>88</v>
       </c>
       <c r="Y38" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="Z38" t="s">
         <v>88</v>
       </c>
       <c r="AA38" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="AB38" t="s">
         <v>88</v>
       </c>
       <c r="AE38" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="AF38" t="s">
         <v>88</v>
       </c>
       <c r="AI38" t="s">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="AJ38" t="s">
         <v>88</v>
@@ -9251,7 +9335,7 @@
         <v>88</v>
       </c>
       <c r="AQ38" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="AR38" t="s">
         <v>88</v>
@@ -9295,25 +9379,25 @@
         <v>88</v>
       </c>
       <c r="Y39" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="Z39" t="s">
         <v>88</v>
       </c>
       <c r="AA39" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="AB39" t="s">
         <v>88</v>
       </c>
       <c r="AE39" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="AF39" t="s">
         <v>88</v>
       </c>
       <c r="AI39" t="s">
-        <v>1602</v>
+        <v>1610</v>
       </c>
       <c r="AJ39" t="s">
         <v>88</v>
@@ -9325,7 +9409,7 @@
         <v>88</v>
       </c>
       <c r="AQ39" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="AR39" t="s">
         <v>88</v>
@@ -9369,25 +9453,25 @@
         <v>88</v>
       </c>
       <c r="Y40" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="Z40" t="s">
         <v>88</v>
       </c>
       <c r="AA40" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="AB40" t="s">
         <v>88</v>
       </c>
       <c r="AE40" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="AF40" t="s">
         <v>88</v>
       </c>
       <c r="AI40" t="s">
-        <v>1603</v>
+        <v>1611</v>
       </c>
       <c r="AJ40" t="s">
         <v>88</v>
@@ -9399,7 +9483,7 @@
         <v>88</v>
       </c>
       <c r="AQ40" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="AR40" t="s">
         <v>88</v>
@@ -9437,25 +9521,25 @@
         <v>88</v>
       </c>
       <c r="Y41" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="Z41" t="s">
         <v>88</v>
       </c>
       <c r="AA41" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="AB41" t="s">
         <v>88</v>
       </c>
       <c r="AE41" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="AF41" t="s">
         <v>88</v>
       </c>
       <c r="AI41" t="s">
-        <v>1604</v>
+        <v>1612</v>
       </c>
       <c r="AJ41" t="s">
         <v>88</v>
@@ -9467,7 +9551,7 @@
         <v>88</v>
       </c>
       <c r="AQ41" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="AR41" t="s">
         <v>88</v>
@@ -9505,25 +9589,25 @@
         <v>88</v>
       </c>
       <c r="Y42" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="Z42" t="s">
         <v>88</v>
       </c>
       <c r="AA42" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="AB42" t="s">
         <v>88</v>
       </c>
       <c r="AE42" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="AF42" t="s">
         <v>88</v>
       </c>
       <c r="AI42" t="s">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="AJ42" t="s">
         <v>88</v>
@@ -9535,7 +9619,7 @@
         <v>88</v>
       </c>
       <c r="AQ42" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="AR42" t="s">
         <v>88</v>
@@ -9573,25 +9657,25 @@
         <v>88</v>
       </c>
       <c r="Y43" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="Z43" t="s">
         <v>88</v>
       </c>
       <c r="AA43" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="AB43" t="s">
         <v>88</v>
       </c>
       <c r="AE43" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="AF43" t="s">
         <v>88</v>
       </c>
       <c r="AI43" t="s">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="AJ43" t="s">
         <v>88</v>
@@ -9603,7 +9687,7 @@
         <v>88</v>
       </c>
       <c r="AQ43" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="AR43" t="s">
         <v>88</v>
@@ -9641,25 +9725,25 @@
         <v>88</v>
       </c>
       <c r="Y44" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="Z44" t="s">
         <v>88</v>
       </c>
       <c r="AA44" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="AB44" t="s">
         <v>88</v>
       </c>
       <c r="AE44" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="AF44" t="s">
         <v>88</v>
       </c>
       <c r="AI44" t="s">
-        <v>1607</v>
+        <v>1615</v>
       </c>
       <c r="AJ44" t="s">
         <v>88</v>
@@ -9671,7 +9755,7 @@
         <v>88</v>
       </c>
       <c r="AQ44" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="AR44" t="s">
         <v>88</v>
@@ -9709,25 +9793,25 @@
         <v>88</v>
       </c>
       <c r="Y45" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="Z45" t="s">
         <v>88</v>
       </c>
       <c r="AA45" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="AB45" t="s">
         <v>88</v>
       </c>
       <c r="AE45" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="AF45" t="s">
         <v>88</v>
       </c>
       <c r="AI45" t="s">
-        <v>1608</v>
+        <v>1616</v>
       </c>
       <c r="AJ45" t="s">
         <v>88</v>
@@ -9739,7 +9823,7 @@
         <v>88</v>
       </c>
       <c r="AQ45" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="AR45" t="s">
         <v>88</v>
@@ -9777,25 +9861,25 @@
         <v>88</v>
       </c>
       <c r="Y46" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="Z46" t="s">
         <v>88</v>
       </c>
       <c r="AA46" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="AB46" t="s">
         <v>88</v>
       </c>
       <c r="AE46" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="AF46" t="s">
         <v>88</v>
       </c>
       <c r="AI46" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
       <c r="AJ46" t="s">
         <v>88</v>
@@ -9807,7 +9891,7 @@
         <v>88</v>
       </c>
       <c r="AQ46" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="AR46" t="s">
         <v>88</v>
@@ -9845,25 +9929,25 @@
         <v>88</v>
       </c>
       <c r="Y47" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="Z47" t="s">
         <v>88</v>
       </c>
       <c r="AA47" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="AB47" t="s">
         <v>88</v>
       </c>
       <c r="AE47" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="AF47" t="s">
         <v>88</v>
       </c>
       <c r="AI47" t="s">
-        <v>1610</v>
+        <v>1618</v>
       </c>
       <c r="AJ47" t="s">
         <v>88</v>
@@ -9875,7 +9959,7 @@
         <v>88</v>
       </c>
       <c r="AQ47" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="AR47" t="s">
         <v>88</v>
@@ -9913,25 +9997,25 @@
         <v>88</v>
       </c>
       <c r="Y48" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="Z48" t="s">
         <v>88</v>
       </c>
       <c r="AA48" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="AB48" t="s">
         <v>88</v>
       </c>
       <c r="AE48" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="AF48" t="s">
         <v>88</v>
       </c>
       <c r="AI48" t="s">
-        <v>1611</v>
+        <v>1619</v>
       </c>
       <c r="AJ48" t="s">
         <v>88</v>
@@ -9943,7 +10027,7 @@
         <v>88</v>
       </c>
       <c r="AQ48" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="AR48" t="s">
         <v>88</v>
@@ -9981,25 +10065,25 @@
         <v>88</v>
       </c>
       <c r="Y49" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="Z49" t="s">
         <v>88</v>
       </c>
       <c r="AA49" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="AB49" t="s">
         <v>88</v>
       </c>
       <c r="AE49" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="AF49" t="s">
         <v>88</v>
       </c>
       <c r="AI49" t="s">
-        <v>1612</v>
+        <v>1620</v>
       </c>
       <c r="AJ49" t="s">
         <v>88</v>
@@ -10011,7 +10095,7 @@
         <v>88</v>
       </c>
       <c r="AQ49" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="AR49" t="s">
         <v>88</v>
@@ -10049,25 +10133,25 @@
         <v>88</v>
       </c>
       <c r="Y50" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="Z50" t="s">
         <v>88</v>
       </c>
       <c r="AA50" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="AB50" t="s">
         <v>88</v>
       </c>
       <c r="AE50" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="AF50" t="s">
         <v>88</v>
       </c>
       <c r="AI50" t="s">
-        <v>1613</v>
+        <v>1621</v>
       </c>
       <c r="AJ50" t="s">
         <v>88</v>
@@ -10079,7 +10163,7 @@
         <v>88</v>
       </c>
       <c r="AQ50" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="AR50" t="s">
         <v>88</v>
@@ -10117,25 +10201,25 @@
         <v>88</v>
       </c>
       <c r="Y51" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="Z51" t="s">
         <v>88</v>
       </c>
       <c r="AA51" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="AB51" t="s">
         <v>88</v>
       </c>
       <c r="AE51" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="AF51" t="s">
         <v>88</v>
       </c>
       <c r="AI51" t="s">
-        <v>1614</v>
+        <v>1622</v>
       </c>
       <c r="AJ51" t="s">
         <v>88</v>
@@ -10147,7 +10231,7 @@
         <v>88</v>
       </c>
       <c r="AQ51" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="AR51" t="s">
         <v>88</v>
@@ -10185,25 +10269,25 @@
         <v>88</v>
       </c>
       <c r="Y52" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="Z52" t="s">
         <v>88</v>
       </c>
       <c r="AA52" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="AB52" t="s">
         <v>88</v>
       </c>
       <c r="AE52" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="AF52" t="s">
         <v>88</v>
       </c>
       <c r="AI52" t="s">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="AJ52" t="s">
         <v>88</v>
@@ -10215,7 +10299,7 @@
         <v>88</v>
       </c>
       <c r="AQ52" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="AR52" t="s">
         <v>88</v>
@@ -10253,25 +10337,25 @@
         <v>88</v>
       </c>
       <c r="Y53" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="Z53" t="s">
         <v>88</v>
       </c>
       <c r="AA53" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="AB53" t="s">
         <v>88</v>
       </c>
       <c r="AE53" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="AF53" t="s">
         <v>88</v>
       </c>
       <c r="AI53" t="s">
-        <v>1616</v>
+        <v>1624</v>
       </c>
       <c r="AJ53" t="s">
         <v>88</v>
@@ -10283,7 +10367,7 @@
         <v>88</v>
       </c>
       <c r="AQ53" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="AR53" t="s">
         <v>88</v>
@@ -10321,25 +10405,25 @@
         <v>88</v>
       </c>
       <c r="Y54" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="Z54" t="s">
         <v>88</v>
       </c>
       <c r="AA54" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="AB54" t="s">
         <v>88</v>
       </c>
       <c r="AE54" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="AF54" t="s">
         <v>88</v>
       </c>
       <c r="AI54" t="s">
-        <v>1617</v>
+        <v>1625</v>
       </c>
       <c r="AJ54" t="s">
         <v>88</v>
@@ -10351,7 +10435,7 @@
         <v>88</v>
       </c>
       <c r="AQ54" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="AR54" t="s">
         <v>88</v>
@@ -10389,25 +10473,25 @@
         <v>88</v>
       </c>
       <c r="Y55" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="Z55" t="s">
         <v>88</v>
       </c>
       <c r="AA55" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="AB55" t="s">
         <v>88</v>
       </c>
       <c r="AE55" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="AF55" t="s">
         <v>88</v>
       </c>
       <c r="AI55" t="s">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="AJ55" t="s">
         <v>88</v>
@@ -10419,7 +10503,7 @@
         <v>88</v>
       </c>
       <c r="AQ55" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="AR55" t="s">
         <v>88</v>
@@ -10457,25 +10541,25 @@
         <v>88</v>
       </c>
       <c r="Y56" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="Z56" t="s">
         <v>88</v>
       </c>
       <c r="AA56" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="AB56" t="s">
         <v>88</v>
       </c>
       <c r="AE56" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="AF56" t="s">
         <v>88</v>
       </c>
       <c r="AI56" t="s">
-        <v>1619</v>
+        <v>1627</v>
       </c>
       <c r="AJ56" t="s">
         <v>88</v>
@@ -10487,7 +10571,7 @@
         <v>88</v>
       </c>
       <c r="AQ56" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="AR56" t="s">
         <v>88</v>
@@ -10525,25 +10609,25 @@
         <v>88</v>
       </c>
       <c r="Y57" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="Z57" t="s">
         <v>88</v>
       </c>
       <c r="AA57" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="AB57" t="s">
         <v>88</v>
       </c>
       <c r="AE57" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="AF57" t="s">
         <v>88</v>
       </c>
       <c r="AI57" t="s">
-        <v>1620</v>
+        <v>1628</v>
       </c>
       <c r="AJ57" t="s">
         <v>88</v>
@@ -10555,7 +10639,7 @@
         <v>88</v>
       </c>
       <c r="AQ57" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="AR57" t="s">
         <v>88</v>
@@ -10593,25 +10677,25 @@
         <v>88</v>
       </c>
       <c r="Y58" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="Z58" t="s">
         <v>88</v>
       </c>
       <c r="AA58" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="AB58" t="s">
         <v>88</v>
       </c>
       <c r="AE58" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="AF58" t="s">
         <v>88</v>
       </c>
       <c r="AI58" t="s">
-        <v>1621</v>
+        <v>1629</v>
       </c>
       <c r="AJ58" t="s">
         <v>88</v>
@@ -10623,7 +10707,7 @@
         <v>88</v>
       </c>
       <c r="AQ58" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="AR58" t="s">
         <v>88</v>
@@ -10661,25 +10745,25 @@
         <v>88</v>
       </c>
       <c r="Y59" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="Z59" t="s">
         <v>88</v>
       </c>
       <c r="AA59" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="AB59" t="s">
         <v>88</v>
       </c>
       <c r="AE59" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="AF59" t="s">
         <v>88</v>
       </c>
       <c r="AI59" t="s">
-        <v>1622</v>
+        <v>1630</v>
       </c>
       <c r="AJ59" t="s">
         <v>88</v>
@@ -10691,7 +10775,7 @@
         <v>88</v>
       </c>
       <c r="AQ59" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="AR59" t="s">
         <v>88</v>
@@ -10729,25 +10813,25 @@
         <v>88</v>
       </c>
       <c r="Y60" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="Z60" t="s">
         <v>88</v>
       </c>
       <c r="AA60" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="AB60" t="s">
         <v>88</v>
       </c>
       <c r="AE60" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="AF60" t="s">
         <v>88</v>
       </c>
       <c r="AI60" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="AJ60" t="s">
         <v>88</v>
@@ -10759,7 +10843,7 @@
         <v>88</v>
       </c>
       <c r="AQ60" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="AR60" t="s">
         <v>88</v>
@@ -10797,25 +10881,25 @@
         <v>88</v>
       </c>
       <c r="Y61" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="Z61" t="s">
         <v>88</v>
       </c>
       <c r="AA61" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="AB61" t="s">
         <v>88</v>
       </c>
       <c r="AE61" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="AF61" t="s">
         <v>88</v>
       </c>
       <c r="AI61" t="s">
-        <v>1623</v>
+        <v>1631</v>
       </c>
       <c r="AJ61" t="s">
         <v>88</v>
@@ -10827,7 +10911,7 @@
         <v>88</v>
       </c>
       <c r="AQ61" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="AR61" t="s">
         <v>88</v>
@@ -10865,25 +10949,25 @@
         <v>88</v>
       </c>
       <c r="Y62" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="Z62" t="s">
         <v>88</v>
       </c>
       <c r="AA62" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="AB62" t="s">
         <v>88</v>
       </c>
       <c r="AE62" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="AF62" t="s">
         <v>88</v>
       </c>
       <c r="AI62" t="s">
-        <v>1624</v>
+        <v>1632</v>
       </c>
       <c r="AJ62" t="s">
         <v>88</v>
@@ -10895,7 +10979,7 @@
         <v>88</v>
       </c>
       <c r="AQ62" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="AR62" t="s">
         <v>88</v>
@@ -10933,25 +11017,25 @@
         <v>88</v>
       </c>
       <c r="Y63" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="Z63" t="s">
         <v>88</v>
       </c>
       <c r="AA63" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="AB63" t="s">
         <v>88</v>
       </c>
       <c r="AE63" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="AF63" t="s">
         <v>88</v>
       </c>
       <c r="AI63" t="s">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="AJ63" t="s">
         <v>88</v>
@@ -10963,7 +11047,7 @@
         <v>88</v>
       </c>
       <c r="AQ63" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="AR63" t="s">
         <v>88</v>
@@ -11019,7 +11103,7 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s">
-        <v>1626</v>
+        <v>1634</v>
       </c>
       <c r="AJ64" t="s">
         <v>88</v>
@@ -11069,25 +11153,25 @@
         <v>88</v>
       </c>
       <c r="Y65" t="s">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="Z65" t="s">
         <v>88</v>
       </c>
       <c r="AA65" t="s">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="AB65" t="s">
         <v>88</v>
       </c>
       <c r="AE65" t="s">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="AF65" t="s">
         <v>88</v>
       </c>
       <c r="AI65" t="s">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="AJ65" t="s">
         <v>88</v>
@@ -11099,7 +11183,7 @@
         <v>88</v>
       </c>
       <c r="AQ65" t="s">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="AR65" t="s">
         <v>88</v>
@@ -11137,25 +11221,25 @@
         <v>88</v>
       </c>
       <c r="Y66" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="Z66" t="s">
         <v>88</v>
       </c>
       <c r="AA66" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="AB66" t="s">
         <v>88</v>
       </c>
       <c r="AE66" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="AF66" t="s">
         <v>88</v>
       </c>
       <c r="AI66" t="s">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="AJ66" t="s">
         <v>88</v>
@@ -11167,7 +11251,7 @@
         <v>88</v>
       </c>
       <c r="AQ66" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="AR66" t="s">
         <v>88</v>
@@ -11205,25 +11289,25 @@
         <v>88</v>
       </c>
       <c r="Y67" t="s">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="Z67" t="s">
         <v>88</v>
       </c>
       <c r="AA67" t="s">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="AB67" t="s">
         <v>88</v>
       </c>
       <c r="AE67" t="s">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="AF67" t="s">
         <v>88</v>
       </c>
       <c r="AI67" t="s">
-        <v>1629</v>
+        <v>1637</v>
       </c>
       <c r="AJ67" t="s">
         <v>88</v>
@@ -11235,7 +11319,7 @@
         <v>88</v>
       </c>
       <c r="AQ67" t="s">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="AR67" t="s">
         <v>88</v>
@@ -11273,25 +11357,25 @@
         <v>88</v>
       </c>
       <c r="Y68" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="Z68" t="s">
         <v>88</v>
       </c>
       <c r="AA68" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="AB68" t="s">
         <v>88</v>
       </c>
       <c r="AE68" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="AF68" t="s">
         <v>88</v>
       </c>
       <c r="AI68" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="AJ68" t="s">
         <v>88</v>
@@ -11303,7 +11387,7 @@
         <v>88</v>
       </c>
       <c r="AQ68" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="AR68" t="s">
         <v>88</v>
@@ -11341,7 +11425,7 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s">
-        <v>1631</v>
+        <v>1639</v>
       </c>
       <c r="AJ69" t="s">
         <v>88</v>
@@ -11385,7 +11469,7 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="AJ70" t="s">
         <v>88</v>
@@ -11429,7 +11513,7 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
       <c r="AJ71" t="s">
         <v>88</v>
@@ -11473,7 +11557,7 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
       <c r="AJ72" t="s">
         <v>88</v>
@@ -11517,7 +11601,7 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
       <c r="AJ73" t="s">
         <v>88</v>
@@ -11561,7 +11645,7 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
       <c r="AJ74" t="s">
         <v>88</v>
@@ -11605,7 +11689,7 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="AJ75" t="s">
         <v>88</v>
@@ -11649,7 +11733,7 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
       <c r="AJ76" t="s">
         <v>88</v>
@@ -11693,7 +11777,7 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="AJ77" t="s">
         <v>88</v>
@@ -11737,7 +11821,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="AJ78" t="s">
         <v>88</v>
@@ -11781,7 +11865,7 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="AJ79" t="s">
         <v>88</v>
@@ -11825,7 +11909,7 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="AJ80" t="s">
         <v>88</v>
@@ -11869,7 +11953,7 @@
         <v>88</v>
       </c>
       <c r="AI81" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="AJ81" t="s">
         <v>88</v>
@@ -11913,7 +11997,7 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="AJ82" t="s">
         <v>88</v>
@@ -11957,7 +12041,7 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="AJ83" t="s">
         <v>88</v>
@@ -12001,7 +12085,7 @@
         <v>88</v>
       </c>
       <c r="AI84" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="AJ84" t="s">
         <v>88</v>
@@ -12045,7 +12129,7 @@
         <v>88</v>
       </c>
       <c r="AI85" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="AJ85" t="s">
         <v>88</v>
@@ -12089,7 +12173,7 @@
         <v>88</v>
       </c>
       <c r="AI86" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="AJ86" t="s">
         <v>88</v>
@@ -12115,7 +12199,7 @@
         <v>88</v>
       </c>
       <c r="AI87" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="AJ87" t="s">
         <v>88</v>
@@ -12135,7 +12219,7 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="AJ88" t="s">
         <v>88</v>
@@ -12155,7 +12239,7 @@
         <v>88</v>
       </c>
       <c r="AI89" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="AJ89" t="s">
         <v>88</v>
@@ -12175,7 +12259,7 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="AJ90" t="s">
         <v>88</v>
@@ -12195,7 +12279,7 @@
         <v>88</v>
       </c>
       <c r="AI91" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="AJ91" t="s">
         <v>88</v>
@@ -12235,7 +12319,7 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="AJ93" t="s">
         <v>88</v>
@@ -12255,7 +12339,7 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="AJ94" t="s">
         <v>88</v>
@@ -12275,7 +12359,7 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="AJ95" t="s">
         <v>88</v>
@@ -12295,7 +12379,7 @@
         <v>88</v>
       </c>
       <c r="AI96" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="AJ96" t="s">
         <v>88</v>
@@ -12315,7 +12399,7 @@
         <v>88</v>
       </c>
       <c r="AI97" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="AJ97" t="s">
         <v>88</v>
@@ -12335,7 +12419,7 @@
         <v>88</v>
       </c>
       <c r="AI98" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="AJ98" t="s">
         <v>88</v>
@@ -12355,7 +12439,7 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="AJ99" t="s">
         <v>88</v>
@@ -12375,7 +12459,7 @@
         <v>88</v>
       </c>
       <c r="AI100" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="AJ100" t="s">
         <v>88</v>
@@ -12395,7 +12479,7 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="AJ101" t="s">
         <v>88</v>
@@ -12415,7 +12499,7 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="AJ102" t="s">
         <v>88</v>
@@ -12435,7 +12519,7 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="AJ103" t="s">
         <v>88</v>
@@ -12455,7 +12539,7 @@
         <v>88</v>
       </c>
       <c r="AI104" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="AJ104" t="s">
         <v>88</v>
@@ -12475,7 +12559,7 @@
         <v>88</v>
       </c>
       <c r="AI105" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="AJ105" t="s">
         <v>88</v>
@@ -12495,7 +12579,7 @@
         <v>88</v>
       </c>
       <c r="AI106" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="AJ106" t="s">
         <v>88</v>
@@ -12515,7 +12599,7 @@
         <v>88</v>
       </c>
       <c r="AI107" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="AJ107" t="s">
         <v>88</v>
@@ -12535,7 +12619,7 @@
         <v>88</v>
       </c>
       <c r="AI108" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="AJ108" t="s">
         <v>88</v>
@@ -12555,7 +12639,7 @@
         <v>88</v>
       </c>
       <c r="AI109" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="AJ109" t="s">
         <v>88</v>
@@ -12575,7 +12659,7 @@
         <v>88</v>
       </c>
       <c r="AI110" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="AJ110" t="s">
         <v>88</v>
@@ -12595,7 +12679,7 @@
         <v>88</v>
       </c>
       <c r="AI111" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="AJ111" t="s">
         <v>88</v>
@@ -12615,7 +12699,7 @@
         <v>88</v>
       </c>
       <c r="AI112" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="AJ112" t="s">
         <v>88</v>
@@ -12635,7 +12719,7 @@
         <v>88</v>
       </c>
       <c r="AI113" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="AJ113" t="s">
         <v>88</v>
@@ -12655,7 +12739,7 @@
         <v>88</v>
       </c>
       <c r="AI114" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="AJ114" t="s">
         <v>88</v>
@@ -12675,7 +12759,7 @@
         <v>88</v>
       </c>
       <c r="AI115" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="AJ115" t="s">
         <v>88</v>
@@ -12695,7 +12779,7 @@
         <v>88</v>
       </c>
       <c r="AI116" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="AJ116" t="s">
         <v>88</v>
@@ -12715,7 +12799,7 @@
         <v>88</v>
       </c>
       <c r="AI117" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="AJ117" t="s">
         <v>88</v>
@@ -12735,7 +12819,7 @@
         <v>88</v>
       </c>
       <c r="AI118" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="AJ118" t="s">
         <v>88</v>
@@ -12755,7 +12839,7 @@
         <v>88</v>
       </c>
       <c r="AI119" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="AJ119" t="s">
         <v>88</v>
@@ -12775,7 +12859,7 @@
         <v>88</v>
       </c>
       <c r="AI120" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="AJ120" t="s">
         <v>88</v>
@@ -12795,7 +12879,7 @@
         <v>88</v>
       </c>
       <c r="AI121" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="AJ121" t="s">
         <v>88</v>
@@ -12815,7 +12899,7 @@
         <v>88</v>
       </c>
       <c r="AI122" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="AJ122" t="s">
         <v>88</v>
@@ -12835,7 +12919,7 @@
         <v>88</v>
       </c>
       <c r="AI123" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="AJ123" t="s">
         <v>88</v>
@@ -12855,7 +12939,7 @@
         <v>88</v>
       </c>
       <c r="AI124" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="AJ124" t="s">
         <v>88</v>
@@ -12875,7 +12959,7 @@
         <v>88</v>
       </c>
       <c r="AI125" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="AJ125" t="s">
         <v>88</v>
@@ -12895,7 +12979,7 @@
         <v>88</v>
       </c>
       <c r="AI126" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="AJ126" t="s">
         <v>88</v>
@@ -12915,7 +12999,7 @@
         <v>88</v>
       </c>
       <c r="AI127" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="AJ127" t="s">
         <v>88</v>
@@ -12935,7 +13019,7 @@
         <v>88</v>
       </c>
       <c r="AI128" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="AJ128" t="s">
         <v>88</v>
@@ -12955,7 +13039,7 @@
         <v>88</v>
       </c>
       <c r="AI129" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="AJ129" t="s">
         <v>88</v>
@@ -12975,7 +13059,7 @@
         <v>88</v>
       </c>
       <c r="AI130" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="AJ130" t="s">
         <v>88</v>
@@ -12995,7 +13079,7 @@
         <v>88</v>
       </c>
       <c r="AI131" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="AJ131" t="s">
         <v>88</v>
@@ -13015,7 +13099,7 @@
         <v>88</v>
       </c>
       <c r="AI132" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="AJ132" t="s">
         <v>88</v>
@@ -13035,7 +13119,7 @@
         <v>88</v>
       </c>
       <c r="AI133" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="AJ133" t="s">
         <v>88</v>
@@ -13055,7 +13139,7 @@
         <v>88</v>
       </c>
       <c r="AI134" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="AJ134" t="s">
         <v>88</v>
@@ -13075,7 +13159,7 @@
         <v>88</v>
       </c>
       <c r="AI135" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="AJ135" t="s">
         <v>88</v>
@@ -13095,7 +13179,7 @@
         <v>88</v>
       </c>
       <c r="AI136" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="AJ136" t="s">
         <v>88</v>
@@ -13115,7 +13199,7 @@
         <v>88</v>
       </c>
       <c r="AI137" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="AJ137" t="s">
         <v>88</v>
@@ -13135,7 +13219,7 @@
         <v>88</v>
       </c>
       <c r="AI138" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="AJ138" t="s">
         <v>88</v>
@@ -13155,7 +13239,7 @@
         <v>88</v>
       </c>
       <c r="AI139" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="AJ139" t="s">
         <v>88</v>
@@ -13175,7 +13259,7 @@
         <v>88</v>
       </c>
       <c r="AI140" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="AJ140" t="s">
         <v>88</v>
@@ -13195,7 +13279,7 @@
         <v>88</v>
       </c>
       <c r="AI141" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="AJ141" t="s">
         <v>88</v>
@@ -13235,7 +13319,7 @@
         <v>88</v>
       </c>
       <c r="AI143" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="AJ143" t="s">
         <v>88</v>
@@ -13255,7 +13339,7 @@
         <v>88</v>
       </c>
       <c r="AI144" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="AJ144" t="s">
         <v>88</v>
@@ -13275,7 +13359,7 @@
         <v>88</v>
       </c>
       <c r="AI145" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="AJ145" t="s">
         <v>88</v>
@@ -13295,7 +13379,7 @@
         <v>88</v>
       </c>
       <c r="AI146" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="AJ146" t="s">
         <v>88</v>
@@ -13315,7 +13399,7 @@
         <v>88</v>
       </c>
       <c r="AI147" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="AJ147" t="s">
         <v>88</v>
@@ -13335,7 +13419,7 @@
         <v>88</v>
       </c>
       <c r="AI148" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="AJ148" t="s">
         <v>88</v>
@@ -13355,7 +13439,7 @@
         <v>88</v>
       </c>
       <c r="AI149" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="AJ149" t="s">
         <v>88</v>
@@ -13375,7 +13459,7 @@
         <v>88</v>
       </c>
       <c r="AI150" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="AJ150" t="s">
         <v>88</v>
@@ -13395,7 +13479,7 @@
         <v>88</v>
       </c>
       <c r="AI151" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="AJ151" t="s">
         <v>88</v>
@@ -13415,7 +13499,7 @@
         <v>88</v>
       </c>
       <c r="AI152" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="AJ152" t="s">
         <v>88</v>
@@ -13435,7 +13519,7 @@
         <v>88</v>
       </c>
       <c r="AI153" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="AJ153" t="s">
         <v>88</v>
@@ -13455,7 +13539,7 @@
         <v>88</v>
       </c>
       <c r="AI154" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="AJ154" t="s">
         <v>88</v>
@@ -13475,7 +13559,7 @@
         <v>88</v>
       </c>
       <c r="AI155" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="AJ155" t="s">
         <v>88</v>
@@ -13495,7 +13579,7 @@
         <v>88</v>
       </c>
       <c r="AI156" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="AJ156" t="s">
         <v>88</v>
@@ -13515,7 +13599,7 @@
         <v>88</v>
       </c>
       <c r="AI157" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="AJ157" t="s">
         <v>88</v>
@@ -13535,7 +13619,7 @@
         <v>88</v>
       </c>
       <c r="AI158" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="AJ158" t="s">
         <v>88</v>
@@ -13555,7 +13639,7 @@
         <v>88</v>
       </c>
       <c r="AI159" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="AJ159" t="s">
         <v>88</v>
@@ -13575,7 +13659,7 @@
         <v>88</v>
       </c>
       <c r="AI160" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="AJ160" t="s">
         <v>88</v>
@@ -13595,7 +13679,7 @@
         <v>88</v>
       </c>
       <c r="AI161" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="AJ161" t="s">
         <v>88</v>
@@ -13614,6 +13698,12 @@
       <c r="X162" t="s">
         <v>88</v>
       </c>
+      <c r="AI162" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>88</v>
+      </c>
       <c r="AO162" t="s">
         <v>670</v>
       </c>
@@ -13628,6 +13718,12 @@
       <c r="X163" t="s">
         <v>88</v>
       </c>
+      <c r="AI163" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>88</v>
+      </c>
       <c r="AO163" t="s">
         <v>671</v>
       </c>
@@ -13642,6 +13738,12 @@
       <c r="X164" t="s">
         <v>88</v>
       </c>
+      <c r="AI164" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>88</v>
+      </c>
       <c r="AO164" t="s">
         <v>672</v>
       </c>
@@ -13656,6 +13758,12 @@
       <c r="X165" t="s">
         <v>88</v>
       </c>
+      <c r="AI165" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>88</v>
+      </c>
       <c r="AO165" t="s">
         <v>673</v>
       </c>
@@ -13670,6 +13778,12 @@
       <c r="X166" t="s">
         <v>88</v>
       </c>
+      <c r="AI166" t="s">
+        <v>1734</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>88</v>
+      </c>
       <c r="AO166" t="s">
         <v>674</v>
       </c>
@@ -13684,6 +13798,12 @@
       <c r="X167" t="s">
         <v>88</v>
       </c>
+      <c r="AI167" t="s">
+        <v>1735</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>88</v>
+      </c>
       <c r="AO167" t="s">
         <v>675</v>
       </c>
@@ -13698,6 +13818,12 @@
       <c r="X168" t="s">
         <v>88</v>
       </c>
+      <c r="AI168" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>88</v>
+      </c>
       <c r="AO168" t="s">
         <v>676</v>
       </c>
@@ -13712,6 +13838,12 @@
       <c r="X169" t="s">
         <v>88</v>
       </c>
+      <c r="AI169" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>88</v>
+      </c>
       <c r="AO169" t="s">
         <v>677</v>
       </c>
@@ -13726,6 +13858,12 @@
       <c r="X170" t="s">
         <v>88</v>
       </c>
+      <c r="AI170" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>88</v>
+      </c>
       <c r="AO170" t="s">
         <v>678</v>
       </c>
@@ -13740,6 +13878,12 @@
       <c r="X171" t="s">
         <v>88</v>
       </c>
+      <c r="AI171" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>88</v>
+      </c>
       <c r="AO171" t="s">
         <v>679</v>
       </c>
@@ -13754,6 +13898,12 @@
       <c r="X172" t="s">
         <v>88</v>
       </c>
+      <c r="AI172" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>88</v>
+      </c>
       <c r="AO172" t="s">
         <v>680</v>
       </c>
@@ -13768,6 +13918,12 @@
       <c r="X173" t="s">
         <v>88</v>
       </c>
+      <c r="AI173" t="s">
+        <v>1741</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>88</v>
+      </c>
       <c r="AO173" t="s">
         <v>681</v>
       </c>
@@ -13782,6 +13938,12 @@
       <c r="X174" t="s">
         <v>88</v>
       </c>
+      <c r="AI174" t="s">
+        <v>1742</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>88</v>
+      </c>
       <c r="AO174" t="s">
         <v>682</v>
       </c>
@@ -13796,6 +13958,12 @@
       <c r="X175" t="s">
         <v>88</v>
       </c>
+      <c r="AI175" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>88</v>
+      </c>
       <c r="AO175" t="s">
         <v>683</v>
       </c>
@@ -13810,6 +13978,12 @@
       <c r="X176" t="s">
         <v>88</v>
       </c>
+      <c r="AI176" t="s">
+        <v>1744</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>88</v>
+      </c>
       <c r="AO176" t="s">
         <v>684</v>
       </c>
@@ -13824,6 +13998,12 @@
       <c r="X177" t="s">
         <v>88</v>
       </c>
+      <c r="AI177" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>88</v>
+      </c>
       <c r="AO177" t="s">
         <v>685</v>
       </c>
@@ -13838,6 +14018,12 @@
       <c r="X178" t="s">
         <v>88</v>
       </c>
+      <c r="AI178" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>88</v>
+      </c>
       <c r="AO178" t="s">
         <v>686</v>
       </c>
@@ -13852,6 +14038,12 @@
       <c r="X179" t="s">
         <v>88</v>
       </c>
+      <c r="AI179" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>88</v>
+      </c>
       <c r="AO179" t="s">
         <v>687</v>
       </c>
@@ -13866,6 +14058,12 @@
       <c r="X180" t="s">
         <v>88</v>
       </c>
+      <c r="AI180" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>88</v>
+      </c>
       <c r="AO180" t="s">
         <v>688</v>
       </c>
@@ -13880,6 +14078,12 @@
       <c r="X181" t="s">
         <v>88</v>
       </c>
+      <c r="AI181" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>88</v>
+      </c>
       <c r="AO181" t="s">
         <v>689</v>
       </c>
@@ -25201,13 +25405,13 @@
     </row>
     <row r="990" spans="23:42">
       <c r="W990" t="s">
-        <v>478</v>
+        <v>1498</v>
       </c>
       <c r="X990" t="s">
         <v>88</v>
       </c>
       <c r="AO990" t="s">
-        <v>478</v>
+        <v>1498</v>
       </c>
       <c r="AP990" t="s">
         <v>88</v>
@@ -25215,13 +25419,13 @@
     </row>
     <row r="991" spans="23:42">
       <c r="W991" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="X991" t="s">
         <v>88</v>
       </c>
       <c r="AO991" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AP991" t="s">
         <v>88</v>
@@ -25229,13 +25433,13 @@
     </row>
     <row r="992" spans="23:42">
       <c r="W992" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="X992" t="s">
         <v>88</v>
       </c>
       <c r="AO992" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AP992" t="s">
         <v>88</v>
@@ -25243,13 +25447,13 @@
     </row>
     <row r="993" spans="23:42">
       <c r="W993" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="X993" t="s">
         <v>88</v>
       </c>
       <c r="AO993" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="AP993" t="s">
         <v>88</v>
@@ -25257,13 +25461,13 @@
     </row>
     <row r="994" spans="23:42">
       <c r="W994" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="X994" t="s">
         <v>88</v>
       </c>
       <c r="AO994" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AP994" t="s">
         <v>88</v>
@@ -25271,15 +25475,127 @@
     </row>
     <row r="995" spans="23:42">
       <c r="W995" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="X995" t="s">
         <v>88</v>
       </c>
       <c r="AO995" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="AP995" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="996" spans="23:42">
+      <c r="W996" t="s">
+        <v>1504</v>
+      </c>
+      <c r="X996" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO996" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AP996" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="997" spans="23:42">
+      <c r="W997" t="s">
+        <v>1505</v>
+      </c>
+      <c r="X997" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO997" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AP997" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="998" spans="23:42">
+      <c r="W998" t="s">
+        <v>478</v>
+      </c>
+      <c r="X998" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO998" t="s">
+        <v>478</v>
+      </c>
+      <c r="AP998" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="999" spans="23:42">
+      <c r="W999" t="s">
+        <v>1506</v>
+      </c>
+      <c r="X999" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO999" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AP999" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1000" spans="23:42">
+      <c r="W1000" t="s">
+        <v>1507</v>
+      </c>
+      <c r="X1000" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1000" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AP1000" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1001" spans="23:42">
+      <c r="W1001" t="s">
+        <v>1508</v>
+      </c>
+      <c r="X1001" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1001" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AP1001" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1002" spans="23:42">
+      <c r="W1002" t="s">
+        <v>1509</v>
+      </c>
+      <c r="X1002" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1002" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AP1002" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1003" spans="23:42">
+      <c r="W1003" t="s">
+        <v>1510</v>
+      </c>
+      <c r="X1003" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1003" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AP1003" t="s">
         <v>88</v>
       </c>
     </row>
@@ -28055,7 +28371,7 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$W$4:$W$995</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
       <formula1>'Codelijsten'!$Y$4:$Y$68</formula1>
@@ -28073,7 +28389,7 @@
       <formula1>'Codelijsten'!$AG$4:$AG$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF8:AF1000001">
-      <formula1>'Codelijsten'!$AI$4:$AI$161</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
@@ -28088,7 +28404,7 @@
       <formula1>'Codelijsten'!$AM$4:$AM$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$AO$4:$AO$995</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>'Codelijsten'!$AQ$4:$AQ$68</formula1>
@@ -28134,50 +28450,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1728</v>
+        <v>1756</v>
       </c>
       <c r="B1" t="s">
-        <v>1729</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1730</v>
+        <v>1758</v>
       </c>
       <c r="B2" t="s">
-        <v>1731</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1732</v>
+        <v>1760</v>
       </c>
       <c r="B3" t="s">
-        <v>1733</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1734</v>
+        <v>1762</v>
       </c>
       <c r="B4" t="s">
-        <v>1735</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1736</v>
+        <v>1764</v>
       </c>
       <c r="B5" t="s">
-        <v>1737</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1738</v>
+        <v>1766</v>
       </c>
       <c r="B6" t="s">
-        <v>1739</v>
+        <v>1767</v>
       </c>
     </row>
   </sheetData>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5291,19 +5291,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-18 15:21:12.189265</t>
+    <t>2025-09-22 09:28:03.247203</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.7</t>
+    <t>2.1.8</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.2.0</t>
+    <t>9.2.2</t>
   </si>
   <si>
     <t>schema-version</t>
@@ -26482,13 +26482,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1000001">
-      <formula1>'Codelijsten'!$A$4:$A$8</formula1>
+      <formula1>'Codelijsten'!$A$4:''$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI1000001">
-      <formula1>'Codelijsten'!$C$4:$C$18</formula1>
+      <formula1>'Codelijsten'!$C$4:''$C$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ1000001">
-      <formula1>'Codelijsten'!$E$4:$E$29</formula1>
+      <formula1>'Codelijsten'!$E$4:''$E$29</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
       <formula1>-146096</formula1>
@@ -26497,7 +26497,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AX1000001">
-      <formula1>'Codelijsten'!$G$4:$G$86</formula1>
+      <formula1>'Codelijsten'!$G$4:''$G$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -27314,25 +27314,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$I$4:$I$14</formula1>
+      <formula1>'Codelijsten'!$I$4:''$I$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$K$4:$K$5</formula1>
+      <formula1>'Codelijsten'!$K$4:''$K$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$M$4:$M$86</formula1>
+      <formula1>'Codelijsten'!$M$4:''$M$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$O$4:$O$12</formula1>
+      <formula1>'Codelijsten'!$O$4:''$O$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$Q$4:$Q$40</formula1>
+      <formula1>'Codelijsten'!$Q$4:''$Q$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$S$4:$S$6</formula1>
+      <formula1>'Codelijsten'!$S$4:''$S$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -27350,7 +27350,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$U$4:$U$86</formula1>
+      <formula1>'Codelijsten'!$U$4:''$U$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -28371,25 +28371,25 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$W$4:$W$1003</formula1>
+      <formula1>'Codelijsten'!$W$4:''$W$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$Y$4:$Y$68</formula1>
+      <formula1>'Codelijsten'!$Y$4:''$Y$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$AA$4:$AA$68</formula1>
+      <formula1>'Codelijsten'!$AA$4:''$AA$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T1000001">
-      <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
+      <formula1>'Codelijsten'!$AC$4:''$AC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$AE$4:$AE$68</formula1>
+      <formula1>'Codelijsten'!$AE$4:''$AE$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
-      <formula1>'Codelijsten'!$AG$4:$AG$6</formula1>
+      <formula1>'Codelijsten'!$AG$4:''$AG$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF8:AF1000001">
-      <formula1>'Codelijsten'!$AI$4:$AI$181</formula1>
+      <formula1>'Codelijsten'!$AI$4:''$AI$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
@@ -28398,16 +28398,16 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
-      <formula1>'Codelijsten'!$AK$4:$AK$6</formula1>
+      <formula1>'Codelijsten'!$AK$4:''$AK$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8:AJ1000001">
-      <formula1>'Codelijsten'!$AM$4:$AM$5</formula1>
+      <formula1>'Codelijsten'!$AM$4:''$AM$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$AO$4:$AO$1003</formula1>
+      <formula1>'Codelijsten'!$AO$4:''$AO$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
-      <formula1>'Codelijsten'!$AQ$4:$AQ$68</formula1>
+      <formula1>'Codelijsten'!$AQ$4:''$AQ$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH8:BH1000001">
       <formula1>-146096</formula1>
@@ -28419,7 +28419,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU8:BU1000001">
-      <formula1>'Codelijsten'!$AS$4:$AS$86</formula1>
+      <formula1>'Codelijsten'!$AS$4:''$AS$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5291,7 +5291,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:28:03.247203</t>
+    <t>2025-09-22 09:59:17.697795</t>
   </si>
   <si>
     <t>version</t>
@@ -26482,13 +26482,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$8</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$18</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$29</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$29</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
       <formula1>-146096</formula1>
@@ -26497,7 +26497,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AX1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$86</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -27314,25 +27314,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$14</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$5</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$86</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$12</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$40</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$6</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -27350,7 +27350,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$86</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -28371,25 +28371,25 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$1003</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$68</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$68</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$6</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$68</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$6</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF8:AF1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$181</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
@@ -28398,16 +28398,16 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$6</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8:AJ1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$5</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$1003</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
-      <formula1>'Codelijsten'!$AQ$4:''$AQ$68</formula1>
+      <formula1>'Codelijsten'!$AQ$4:$AQ$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH8:BH1000001">
       <formula1>-146096</formula1>
@@ -28419,7 +28419,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU8:BU1000001">
-      <formula1>'Codelijsten'!$AS$4:''$AS$86</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5291,7 +5291,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:17.697795</t>
+    <t>2025-09-22 11:00:06.056776</t>
   </si>
   <si>
     <t>version</t>
@@ -5309,7 +5309,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5291,13 +5291,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:06.056776</t>
+    <t>2025-09-24 17:44:36.378057</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5291,13 +5291,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:36.378057</t>
+    <t>2025-09-24 22:46:51.191334</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_opdracht_template_full.xlsx
+++ b/templates/oefen/oefen_opdracht_template_full.xlsx
@@ -5711,25 +5711,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2026-01-01 02:16:49.459741</t>
+    <t>2026-02-10 16:32:35.583909</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.2</t>
+    <t>2.2.3</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.4.0</t>
+    <t>9.4.3</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.7.0</t>
+    <t>5.9.0</t>
   </si>
   <si>
     <t>mode</t>
